--- a/qa/01.测试用例/副本系统/副本入口/副本入口测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/副本入口/副本入口测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" tabRatio="711"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" tabRatio="711" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="17" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="880">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -3451,6 +3451,18 @@
   </si>
   <si>
     <t>hzg</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4289,7 +4301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4498,6 +4510,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4654,7 +4669,36 @@
     <cellStyle name="好 2" xfId="79"/>
     <cellStyle name="检查单元格 2" xfId="25"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -7249,7 +7293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -7323,10 +7367,10 @@
     </row>
     <row r="11" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -8520,9 +8564,9 @@
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="57"/>
       <c r="C1" s="36"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
     </row>
     <row r="2" spans="1:10" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
@@ -9675,39 +9719,39 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K1:IS2 A1:B2 C6:D15 H6:IS15 E8:G15 C22:E25 H22:IS25 F23:G25 C46:E49 H46:IS49 F46:G48 F81:F83 C26:IS45 F85:G87 C80:E96 A4:B1048576 H83:IS87 C50:IS79 G83 C97:IS65341 E2:J2 E1:H1 A3:IS3 C4:IS5 C16:IS21 G80:IS82 G88:IS88 F89:IS96">
-    <cfRule type="cellIs" dxfId="49" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="86" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="87" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="47" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="92" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="93" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="45" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="94" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="95" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="cellIs" dxfId="43" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>G115&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9723,10 +9767,10 @@
   <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -9747,9 +9791,9 @@
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="57"/>
       <c r="C1" s="36"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:10" s="22" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -12108,15 +12152,15 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD12 A15:XFD16 A13:H14 J13:XFD14 A17:H17 J17:XFD17 A18:XFD36 A37:H38 J37:XFD38 A39:XFD47 A48:H48 J48:XFD48 A49:XFD60 A62:XFD64 A61:H61 J61:XFD61 A66:XFD73 A65:H65 J65:XFD65 A74:H74 J74:XFD74 A75:XFD1048576">
-    <cfRule type="cellIs" dxfId="40" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD36 A37:H38 J37:XFD38 A39:XFD47 A48:H48 J48:XFD48 A49:XFD60 A62:XFD64 A61:H61 J61:XFD61 A66:XFD73 A65:H65 J65:XFD65 A74:H74 J74:XFD74 A75:XFD1048576">
-    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12144,11 +12188,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J117" sqref="J117"/>
+      <selection pane="bottomRight" activeCell="H75" sqref="H75:H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -12592,7 +12636,7 @@
         <v>478</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>843</v>
+        <v>877</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
@@ -12603,7 +12647,7 @@
         <v>479</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>844</v>
+        <v>795</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
@@ -12614,7 +12658,7 @@
         <v>480</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>844</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="2:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -13083,7 +13127,7 @@
         <v>525</v>
       </c>
       <c r="H72" s="52" t="s">
-        <v>844</v>
+        <v>795</v>
       </c>
     </row>
     <row r="73" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -13095,7 +13139,7 @@
         <v>526</v>
       </c>
       <c r="H73" s="52" t="s">
-        <v>844</v>
+        <v>878</v>
       </c>
     </row>
     <row r="74" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -13110,7 +13154,7 @@
         <v>781</v>
       </c>
       <c r="H74" s="83" t="s">
-        <v>844</v>
+        <v>879</v>
       </c>
     </row>
     <row r="75" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -13123,7 +13167,7 @@
         <v>782</v>
       </c>
       <c r="H75" s="83" t="s">
-        <v>844</v>
+        <v>795</v>
       </c>
     </row>
     <row r="76" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -13135,8 +13179,8 @@
       <c r="G76" s="77" t="s">
         <v>783</v>
       </c>
-      <c r="H76" s="83" t="s">
-        <v>844</v>
+      <c r="H76" s="84" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="77" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -13148,8 +13192,8 @@
       <c r="G77" s="77" t="s">
         <v>784</v>
       </c>
-      <c r="H77" s="83" t="s">
-        <v>844</v>
+      <c r="H77" s="84" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="78" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -13983,98 +14027,98 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A1 A2:D2 E8:E9 E52:F52 E54:F54 E56:F56 E143:E144 H143:IS144 A4:D70 E68 A71:E71 G143 E1:IS2 E4:G7 G9 E53:G53 E55:G55 E145:IS1048576 E57:G67 E69:G70 H4:IS23 H26:IS26 H24 J24:IS25 E10:G51 H28:IS28 H27 J27:IS27 H30:IS31 H29 J29:IS29 H33:IS58 J32:IS32 H59 J59:IS60 H61:IS65 H68:IS70 H66:H67 J66:IS67 H71 J71:IS71 A72:D65530 E72:IS89 E90:H92 J90:IS92 E93:IS105 E106:H106 J106:IS106 E107:IS142">
-    <cfRule type="cellIs" dxfId="37" priority="53" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1 A2:D2 E8:E9 E52:F52 E54:F54 E56:F56 E143:E144 H143:IS144 A4:D70 E68 A71:E71 G143 E1:IS2 E4:G7 G9 E53:G53 E55:G55 E145:IS1048576 E57:G67 E69:G70 H4:IS23 H26:IS26 H24 J24:IS25 E10:G51 H28:IS28 H27 J27:IS27 H30:IS31 H29 J29:IS29 H33:IS58 J32:IS32 H59 J59:IS60 H61:IS65 H68:IS70 H66:H67 J66:IS67 H71 J71:IS71 A72:D65530 E90:H92 J90:IS92 E93:IS105 E106:H106 J106:IS106 E107:IS142 E72:IS89">
+    <cfRule type="cellIs" dxfId="40" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="35" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="33" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="31" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:IS3">
-    <cfRule type="cellIs" dxfId="29" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="15" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9">
-    <cfRule type="cellIs" dxfId="25" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71 G143">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>C71&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="20" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD58 A59:H59 A60:G60 J59:XFD60 A61:XFD65 A68:XFD70 A66:H67 J66:XFD67 A71:H71 J71:XFD71 A72:XFD89 A90:H92 J90:XFD92 A93:XFD105 A106:H106 J106:XFD106 A107:XFD1048576">
-    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD58 A59:H59 A60:G60 J59:XFD60 A61:XFD65 A68:XFD70 A66:H67 J66:XFD67 A71:H71 J71:XFD71 A90:H92 J90:XFD92 A93:XFD105 A106:H106 J106:XFD106 A107:XFD1048576 A72:XFD89">
+    <cfRule type="cellIs" dxfId="21" priority="4" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14540,63 +14584,63 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1 A2:B2 H3:IS3 A4:D65357 E1:IS2 E4:H4 J4:IS4 E5:IS1048576">
-    <cfRule type="cellIs" dxfId="14" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="12" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="10" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="44" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="45" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="8" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="46" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="47" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="6" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="4" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="51" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="cellIs" dxfId="2" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="31" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
